--- a/Data_results.xlsx
+++ b/Data_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -47,6 +47,69 @@
   </si>
   <si>
     <t>Davies_Bouldin</t>
+  </si>
+  <si>
+    <t>armstrong_v1.txt</t>
+  </si>
+  <si>
+    <t>armstrong_v2.txt</t>
+  </si>
+  <si>
+    <t>bhattacharjee_2001.txt</t>
+  </si>
+  <si>
+    <t>chowdary.txt</t>
+  </si>
+  <si>
+    <t>dyrskjot.txt</t>
+  </si>
+  <si>
+    <t>golub_v1.txt</t>
+  </si>
+  <si>
+    <t>golub_v2.txt</t>
+  </si>
+  <si>
+    <t>gordon.txt</t>
+  </si>
+  <si>
+    <t>laiho.txt</t>
+  </si>
+  <si>
+    <t>nutt_v1.txt</t>
+  </si>
+  <si>
+    <t>nutt_v2.txt</t>
+  </si>
+  <si>
+    <t>nutt_v3.txt</t>
+  </si>
+  <si>
+    <t>pomeroy_v1.txt</t>
+  </si>
+  <si>
+    <t>pomeroy_v2.txt</t>
+  </si>
+  <si>
+    <t>ramaswamy.txt</t>
+  </si>
+  <si>
+    <t>shipp.txt</t>
+  </si>
+  <si>
+    <t>singh.txt</t>
+  </si>
+  <si>
+    <t>su.txt</t>
+  </si>
+  <si>
+    <t>west.txt</t>
+  </si>
+  <si>
+    <t>yeoh_v1.txt</t>
+  </si>
+  <si>
+    <t>yeoh_v2.txt</t>
   </si>
 </sst>
 </file>
@@ -378,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +482,678 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>0.4310742903707728</v>
+      </c>
+      <c r="C2">
+        <v>0.2030773565271132</v>
+      </c>
+      <c r="D2">
+        <v>0.2030773565271132</v>
+      </c>
+      <c r="E2">
+        <v>0.4695504973307726</v>
+      </c>
+      <c r="F2">
+        <v>0.1762291725437023</v>
+      </c>
+      <c r="G2">
+        <v>-0.05541386669488701</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.1762291725437023</v>
+      </c>
+      <c r="J2">
+        <v>0.2313311609357522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.7314525715654289</v>
+      </c>
+      <c r="C3">
+        <v>0.5522089444262627</v>
+      </c>
+      <c r="D3">
+        <v>0.3240545990679606</v>
+      </c>
+      <c r="E3">
+        <v>0.657142566678019</v>
+      </c>
+      <c r="F3">
+        <v>0.6438932711591524</v>
+      </c>
+      <c r="G3">
+        <v>0.01041287181200799</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.5137487126673532</v>
+      </c>
+      <c r="J3">
+        <v>0.5082726097538077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.2643471990645339</v>
+      </c>
+      <c r="C4">
+        <v>0.3219633980565554</v>
+      </c>
+      <c r="D4">
+        <v>0.2475652283576619</v>
+      </c>
+      <c r="E4">
+        <v>0.1195644195260702</v>
+      </c>
+      <c r="F4">
+        <v>0.3337723302693746</v>
+      </c>
+      <c r="G4">
+        <v>0.01820726490544026</v>
+      </c>
+      <c r="H4">
+        <v>0.05201850180846855</v>
+      </c>
+      <c r="I4">
+        <v>0.2619382281951234</v>
+      </c>
+      <c r="J4">
+        <v>0.05196223764930576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.9230451578990424</v>
+      </c>
+      <c r="C5">
+        <v>0.6147810049191176</v>
+      </c>
+      <c r="D5">
+        <v>0.4433422747807693</v>
+      </c>
+      <c r="E5">
+        <v>0.7780876219875478</v>
+      </c>
+      <c r="F5">
+        <v>0.8856892418626756</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.9230451578990424</v>
+      </c>
+      <c r="J5">
+        <v>0.7100600508347027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.210367235907511</v>
+      </c>
+      <c r="C6">
+        <v>0.4612686349020754</v>
+      </c>
+      <c r="D6">
+        <v>0.2212140175219024</v>
+      </c>
+      <c r="E6">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="F6">
+        <v>0.3691899070385126</v>
+      </c>
+      <c r="G6">
+        <v>0.0138206388206388</v>
+      </c>
+      <c r="H6">
+        <v>-0.07055597107953128</v>
+      </c>
+      <c r="I6">
+        <v>0.3581081081081081</v>
+      </c>
+      <c r="J6">
+        <v>0.3303062952131753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>0.02287727915505933</v>
+      </c>
+      <c r="C7">
+        <v>0.6358474149379493</v>
+      </c>
+      <c r="D7">
+        <v>0.3584192050730382</v>
+      </c>
+      <c r="E7">
+        <v>-0.01214130536839955</v>
+      </c>
+      <c r="F7">
+        <v>0.888314606741573</v>
+      </c>
+      <c r="G7">
+        <v>-0.03729886218272394</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.5093923760575323</v>
+      </c>
+      <c r="J7">
+        <v>-0.05577545272173399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0.401913053045619</v>
+      </c>
+      <c r="C8">
+        <v>0.5038050912886233</v>
+      </c>
+      <c r="D8">
+        <v>0.7358702939589341</v>
+      </c>
+      <c r="E8">
+        <v>0.3454524785884009</v>
+      </c>
+      <c r="F8">
+        <v>0.5545280796926582</v>
+      </c>
+      <c r="G8">
+        <v>-0.02993342900528686</v>
+      </c>
+      <c r="H8">
+        <v>0.2146188273650901</v>
+      </c>
+      <c r="I8">
+        <v>0.4392348912655021</v>
+      </c>
+      <c r="J8">
+        <v>0.2371536060675805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.7943449538097751</v>
+      </c>
+      <c r="C9">
+        <v>0.8701742752346809</v>
+      </c>
+      <c r="D9">
+        <v>0.594594638774848</v>
+      </c>
+      <c r="E9">
+        <v>0.3832520190743957</v>
+      </c>
+      <c r="F9">
+        <v>0.9726239126589946</v>
+      </c>
+      <c r="G9">
+        <v>0.1461290035850789</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.8203211969247984</v>
+      </c>
+      <c r="J9">
+        <v>-0.02222910762356047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>-0.1057360055286801</v>
+      </c>
+      <c r="C10">
+        <v>0.03097252324687125</v>
+      </c>
+      <c r="D10">
+        <v>-0.0772072404876247</v>
+      </c>
+      <c r="E10">
+        <v>-0.0772072404876247</v>
+      </c>
+      <c r="F10">
+        <v>0.06033940917661845</v>
+      </c>
+      <c r="G10">
+        <v>-0.1065903603684166</v>
+      </c>
+      <c r="H10">
+        <v>-0.0696468746943166</v>
+      </c>
+      <c r="I10">
+        <v>-0.00678179402922467</v>
+      </c>
+      <c r="J10">
+        <v>0.05961376994122604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.02978226606736325</v>
+      </c>
+      <c r="C11">
+        <v>0.05393910754067375</v>
+      </c>
+      <c r="D11">
+        <v>0.0185277916875313</v>
+      </c>
+      <c r="E11">
+        <v>0.05043210780723595</v>
+      </c>
+      <c r="F11">
+        <v>0.01210163546063894</v>
+      </c>
+      <c r="G11">
+        <v>-0.01607895320470176</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.04657076036114433</v>
+      </c>
+      <c r="J11">
+        <v>-0.01526966470089532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0.002099958000840043</v>
+      </c>
+      <c r="C12">
+        <v>-0.03409090909090909</v>
+      </c>
+      <c r="D12">
+        <v>-0.03583473861720073</v>
+      </c>
+      <c r="E12">
+        <v>-0.03714647530603622</v>
+      </c>
+      <c r="F12">
+        <v>-0.02289758534554539</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-0.02932551319648097</v>
+      </c>
+      <c r="J12">
+        <v>0.01451679800912478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>-0.0405405405405406</v>
+      </c>
+      <c r="C13">
+        <v>-0.05538461538461534</v>
+      </c>
+      <c r="D13">
+        <v>-0.04999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>-0.1031518624641833</v>
+      </c>
+      <c r="F13">
+        <v>-0.024390243902439</v>
+      </c>
+      <c r="G13">
+        <v>-0.05538461538461534</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.05688622754491006</v>
+      </c>
+      <c r="J13">
+        <v>-0.1031518624641833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>-0.0246575342465754</v>
+      </c>
+      <c r="C14">
+        <v>-0.05769230769230778</v>
+      </c>
+      <c r="D14">
+        <v>0.04106628242074932</v>
+      </c>
+      <c r="E14">
+        <v>0.1829436038514443</v>
+      </c>
+      <c r="F14">
+        <v>-0.01167883211678843</v>
+      </c>
+      <c r="G14">
+        <v>-0.02606310013717431</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-0.03025936599423627</v>
+      </c>
+      <c r="J14">
+        <v>-0.03888888888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.3538528515454941</v>
+      </c>
+      <c r="C15">
+        <v>0.4440053884149079</v>
+      </c>
+      <c r="D15">
+        <v>0.3058014611087237</v>
+      </c>
+      <c r="E15">
+        <v>0.259190031152648</v>
+      </c>
+      <c r="F15">
+        <v>0.4490401396160559</v>
+      </c>
+      <c r="G15">
+        <v>0.006215040397762629</v>
+      </c>
+      <c r="H15">
+        <v>-0.0006139677666922268</v>
+      </c>
+      <c r="I15">
+        <v>0.4915020670647681</v>
+      </c>
+      <c r="J15">
+        <v>0.4145663632007667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.476917204095842</v>
+      </c>
+      <c r="C16">
+        <v>0.4039014105313798</v>
+      </c>
+      <c r="D16">
+        <v>0.6035131467449913</v>
+      </c>
+      <c r="E16">
+        <v>0.3295575782584257</v>
+      </c>
+      <c r="F16">
+        <v>0.3271210127318264</v>
+      </c>
+      <c r="G16">
+        <v>0.09101733800563912</v>
+      </c>
+      <c r="H16">
+        <v>0.08074720420623559</v>
+      </c>
+      <c r="I16">
+        <v>0.3905955740807541</v>
+      </c>
+      <c r="J16">
+        <v>0.1674248493517435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0.001996007984031867</v>
+      </c>
+      <c r="C17">
+        <v>-0.02663706992230859</v>
+      </c>
+      <c r="D17">
+        <v>0.1677175283732661</v>
+      </c>
+      <c r="E17">
+        <v>0.2057413553456443</v>
+      </c>
+      <c r="F17">
+        <v>0.1338972374696301</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-0.004479910401792028</v>
+      </c>
+      <c r="I17">
+        <v>0.1915161696766064</v>
+      </c>
+      <c r="J17">
+        <v>0.04688962641477314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0.03747248805472274</v>
+      </c>
+      <c r="C18">
+        <v>0.04592475034136347</v>
+      </c>
+      <c r="D18">
+        <v>0.04403503036315536</v>
+      </c>
+      <c r="E18">
+        <v>0.03489933096170147</v>
+      </c>
+      <c r="F18">
+        <v>0.141816934520127</v>
+      </c>
+      <c r="G18">
+        <v>0.01468363667770473</v>
+      </c>
+      <c r="H18">
+        <v>0.0001070347079544379</v>
+      </c>
+      <c r="I18">
+        <v>0.03660012572204167</v>
+      </c>
+      <c r="J18">
+        <v>0.0285007521435857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.4844111008075734</v>
+      </c>
+      <c r="C19">
+        <v>0.5630832334346594</v>
+      </c>
+      <c r="D19">
+        <v>0.3298967050240188</v>
+      </c>
+      <c r="E19">
+        <v>0.3829109251261784</v>
+      </c>
+      <c r="F19">
+        <v>0.4565987116224998</v>
+      </c>
+      <c r="G19">
+        <v>0.1275781782743338</v>
+      </c>
+      <c r="H19">
+        <v>0.09730265752341255</v>
+      </c>
+      <c r="I19">
+        <v>0.4894714981914183</v>
+      </c>
+      <c r="J19">
+        <v>0.4348003998627311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>-0.004826364013423256</v>
+      </c>
+      <c r="C20">
+        <v>0.5532589016294509</v>
+      </c>
+      <c r="D20">
+        <v>0.5532589016294509</v>
+      </c>
+      <c r="E20">
+        <v>-0.001202239170454955</v>
+      </c>
+      <c r="F20">
+        <v>0.3263427881713942</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.04915330436085709</v>
+      </c>
+      <c r="J20">
+        <v>0.2378378378378379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.9024981127298898</v>
+      </c>
+      <c r="C21">
+        <v>0.1827154954853906</v>
+      </c>
+      <c r="D21">
+        <v>0.03392915107944294</v>
+      </c>
+      <c r="E21">
+        <v>0.04044314031716197</v>
+      </c>
+      <c r="F21">
+        <v>0.03154571312734034</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.003795652535305998</v>
+      </c>
+      <c r="J21">
+        <v>0.2590554993178116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0.1167650032366492</v>
+      </c>
+      <c r="C22">
+        <v>0.1278599168085136</v>
+      </c>
+      <c r="D22">
+        <v>0.2856702007115249</v>
+      </c>
+      <c r="E22">
+        <v>0.002944523064928606</v>
+      </c>
+      <c r="F22">
+        <v>0.259249137892096</v>
+      </c>
+      <c r="G22">
+        <v>-0.005448769131739632</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.1468658509159891</v>
+      </c>
+      <c r="J22">
+        <v>-0.006615285069015047</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
